--- a/database.xlsx
+++ b/database.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Pili\astro-ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C1A610-A550-4D38-A4FD-4CAE2581E6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44FDD1-CED9-4228-88A7-349B071DF465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="20532" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2892" windowWidth="17784" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
   <si>
     <t>Ref. del pedido</t>
   </si>
@@ -1016,6 +1029,288 @@
   </si>
   <si>
     <t>Queens/0001</t>
+  </si>
+  <si>
+    <t>Queens/0421</t>
+  </si>
+  <si>
+    <t>Queens/0420</t>
+  </si>
+  <si>
+    <t>Queens/0419</t>
+  </si>
+  <si>
+    <t>Queens/0418</t>
+  </si>
+  <si>
+    <t>Queens/0417</t>
+  </si>
+  <si>
+    <t>Queens/0416</t>
+  </si>
+  <si>
+    <t>Queens/0415</t>
+  </si>
+  <si>
+    <t>Queens/0414</t>
+  </si>
+  <si>
+    <t>Queens/0413</t>
+  </si>
+  <si>
+    <t>Queens/0412</t>
+  </si>
+  <si>
+    <t>Queens/0411</t>
+  </si>
+  <si>
+    <t>Queens/0410</t>
+  </si>
+  <si>
+    <t>Queens/0409</t>
+  </si>
+  <si>
+    <t>Queens/0408</t>
+  </si>
+  <si>
+    <t>Queens/0407</t>
+  </si>
+  <si>
+    <t>Queens/0406</t>
+  </si>
+  <si>
+    <t>Queens/0405</t>
+  </si>
+  <si>
+    <t>Queens/0404</t>
+  </si>
+  <si>
+    <t>Queens/0403</t>
+  </si>
+  <si>
+    <t>Queens/0402</t>
+  </si>
+  <si>
+    <t>Queens/0401</t>
+  </si>
+  <si>
+    <t>Queens/0400</t>
+  </si>
+  <si>
+    <t>Queens/0399</t>
+  </si>
+  <si>
+    <t>Queens/0398</t>
+  </si>
+  <si>
+    <t>Queens/0397</t>
+  </si>
+  <si>
+    <t>Queens/0396</t>
+  </si>
+  <si>
+    <t>Queens/0395</t>
+  </si>
+  <si>
+    <t>Queens/0394</t>
+  </si>
+  <si>
+    <t>Queens/0393</t>
+  </si>
+  <si>
+    <t>Queens/0392</t>
+  </si>
+  <si>
+    <t>Queens/0391</t>
+  </si>
+  <si>
+    <t>Queens/0390</t>
+  </si>
+  <si>
+    <t>Queens/0389</t>
+  </si>
+  <si>
+    <t>Queens/0388</t>
+  </si>
+  <si>
+    <t>Queens/0387</t>
+  </si>
+  <si>
+    <t>Queens/0386</t>
+  </si>
+  <si>
+    <t>Queens/0385</t>
+  </si>
+  <si>
+    <t>Queens/0384</t>
+  </si>
+  <si>
+    <t>Queens/0383</t>
+  </si>
+  <si>
+    <t>Queens/0382</t>
+  </si>
+  <si>
+    <t>Queens/0381</t>
+  </si>
+  <si>
+    <t>Queens/0380</t>
+  </si>
+  <si>
+    <t>Queens/0379</t>
+  </si>
+  <si>
+    <t>Queens/0378</t>
+  </si>
+  <si>
+    <t>Queens/0377</t>
+  </si>
+  <si>
+    <t>Queens/0376</t>
+  </si>
+  <si>
+    <t>Queens/0375</t>
+  </si>
+  <si>
+    <t>Queens/0374</t>
+  </si>
+  <si>
+    <t>Queens/0373</t>
+  </si>
+  <si>
+    <t>Queens/0372</t>
+  </si>
+  <si>
+    <t>Queens/0371</t>
+  </si>
+  <si>
+    <t>Queens/0370</t>
+  </si>
+  <si>
+    <t>Queens/0369</t>
+  </si>
+  <si>
+    <t>Queens/0368</t>
+  </si>
+  <si>
+    <t>Queens/0366</t>
+  </si>
+  <si>
+    <t>Queens/0365</t>
+  </si>
+  <si>
+    <t>Queens/0364</t>
+  </si>
+  <si>
+    <t>Queens/0367</t>
+  </si>
+  <si>
+    <t>Queens/0363</t>
+  </si>
+  <si>
+    <t>Queens/0362</t>
+  </si>
+  <si>
+    <t>Queens/0361</t>
+  </si>
+  <si>
+    <t>Queens/0360</t>
+  </si>
+  <si>
+    <t>Queens/0359</t>
+  </si>
+  <si>
+    <t>Queens/0358</t>
+  </si>
+  <si>
+    <t>Queens/0357</t>
+  </si>
+  <si>
+    <t>Queens/0356</t>
+  </si>
+  <si>
+    <t>Queens/0355</t>
+  </si>
+  <si>
+    <t>Queens/0354</t>
+  </si>
+  <si>
+    <t>Queens/0353</t>
+  </si>
+  <si>
+    <t>Queens/0352</t>
+  </si>
+  <si>
+    <t>Queens/0351</t>
+  </si>
+  <si>
+    <t>Queens/0350</t>
+  </si>
+  <si>
+    <t>Queens/0349</t>
+  </si>
+  <si>
+    <t>Queens/0348</t>
+  </si>
+  <si>
+    <t>Queens/0347</t>
+  </si>
+  <si>
+    <t>Queens/0346</t>
+  </si>
+  <si>
+    <t>Queens/0345</t>
+  </si>
+  <si>
+    <t>Queens/0344</t>
+  </si>
+  <si>
+    <t>Queens/0343</t>
+  </si>
+  <si>
+    <t>Queens/0342</t>
+  </si>
+  <si>
+    <t>Queens/0341</t>
+  </si>
+  <si>
+    <t>Queens/0340</t>
+  </si>
+  <si>
+    <t>Queens/0339</t>
+  </si>
+  <si>
+    <t>Queens/0338</t>
+  </si>
+  <si>
+    <t>Queens/0337</t>
+  </si>
+  <si>
+    <t>Queens/0336</t>
+  </si>
+  <si>
+    <t>Queens/0335</t>
+  </si>
+  <si>
+    <t>Queens/0334</t>
+  </si>
+  <si>
+    <t>Queens/0333</t>
+  </si>
+  <si>
+    <t>Queens/0332</t>
+  </si>
+  <si>
+    <t>Queens/0331</t>
+  </si>
+  <si>
+    <t>Queens/0330</t>
+  </si>
+  <si>
+    <t>Queens/0329</t>
+  </si>
+  <si>
+    <t>Queens/0328</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,1715 +1697,1715 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="B2" s="3">
-        <v>45888.501180555562</v>
+        <v>45930.821759259263</v>
       </c>
       <c r="C2" s="4">
-        <v>9.99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="B3" s="3">
-        <v>45888.499131944453</v>
+        <v>45930.762118055558</v>
       </c>
       <c r="C3" s="4">
-        <v>9.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>334</v>
       </c>
       <c r="B4" s="3">
-        <v>45887.529398148137</v>
+        <v>45926.480219907397</v>
       </c>
       <c r="C4" s="4">
-        <v>15.99</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="B5" s="3">
-        <v>45887.506655092591</v>
+        <v>45926.476643518523</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>36.29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="B6" s="3">
-        <v>45882.607245370367</v>
+        <v>45926.432951388888</v>
       </c>
       <c r="C6" s="4">
-        <v>3.99</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="B7" s="3">
-        <v>45882.605520833327</v>
+        <v>45926.429618055547</v>
       </c>
       <c r="C7" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>338</v>
       </c>
       <c r="B8" s="3">
-        <v>45882.604756944442</v>
+        <v>45925.557974537027</v>
       </c>
       <c r="C8" s="4">
-        <v>12.99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="B9" s="3">
-        <v>45882.594965277778</v>
+        <v>45925.556759259263</v>
       </c>
       <c r="C9" s="4">
-        <v>53.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="B10" s="3">
-        <v>45881.577048611107</v>
+        <v>45925.554571759261</v>
       </c>
       <c r="C10" s="4">
-        <v>17.29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="B11" s="3">
-        <v>45880.570254629631</v>
+        <v>45924.72996527778</v>
       </c>
       <c r="C11" s="4">
-        <v>47.98</v>
+        <v>35.979999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="B12" s="3">
-        <v>45880.490787037037</v>
+        <v>45924.728159722217</v>
       </c>
       <c r="C12" s="4">
-        <v>7</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B13" s="3">
-        <v>45878.529027777768</v>
+        <v>45924.508553240739</v>
       </c>
       <c r="C13" s="4">
-        <v>8.99</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c r="B14" s="3">
-        <v>45878.50209490741</v>
+        <v>45922.811550925922</v>
       </c>
       <c r="C14" s="4">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="B15" s="3">
-        <v>45878.496851851851</v>
+        <v>45922.550636574073</v>
       </c>
       <c r="C15" s="4">
-        <v>30.99</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="B16" s="3">
-        <v>45878.488321759258</v>
+        <v>45919.832615740743</v>
       </c>
       <c r="C16" s="4">
-        <v>4.99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>347</v>
       </c>
       <c r="B17" s="3">
-        <v>45877.511319444442</v>
+        <v>45919.815486111111</v>
       </c>
       <c r="C17" s="4">
-        <v>34.979999999999997</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="B18" s="3">
-        <v>45877.504837962973</v>
+        <v>45919.489317129628</v>
       </c>
       <c r="C18" s="4">
-        <v>8.99</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="B19" s="3">
-        <v>45877.474259259259</v>
+        <v>45919.475972222222</v>
       </c>
       <c r="C19" s="4">
-        <v>9</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="B20" s="3">
-        <v>45876.513483796298</v>
+        <v>45918.566377314812</v>
       </c>
       <c r="C20" s="4">
-        <v>16.989999999999998</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="B21" s="3">
-        <v>45875.496365740742</v>
+        <v>45918.541284722232</v>
       </c>
       <c r="C21" s="4">
-        <v>87.960000000000008</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="B22" s="3">
-        <v>45874.550902777781</v>
+        <v>45918.422615740739</v>
       </c>
       <c r="C22" s="4">
-        <v>25.98</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="B23" s="3">
-        <v>45873.592673611107</v>
+        <v>45917.850659722222</v>
       </c>
       <c r="C23" s="4">
-        <v>45.98</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>354</v>
       </c>
       <c r="B24" s="3">
-        <v>45873.589479166672</v>
+        <v>45917.84915509259</v>
       </c>
       <c r="C24" s="4">
-        <v>20.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="B25" s="3">
-        <v>45873.51357638889</v>
+        <v>45917.838391203702</v>
       </c>
       <c r="C25" s="4">
-        <v>10.99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>356</v>
       </c>
       <c r="B26" s="3">
-        <v>45873.479710648149</v>
+        <v>45917.805462962962</v>
       </c>
       <c r="C26" s="4">
-        <v>6.99</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>357</v>
       </c>
       <c r="B27" s="3">
-        <v>45871.578101851846</v>
+        <v>45917.499988425923</v>
       </c>
       <c r="C27" s="4">
-        <v>15.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="B28" s="3">
-        <v>45871.541724537034</v>
+        <v>45917.492592592593</v>
       </c>
       <c r="C28" s="4">
-        <v>25.99</v>
+        <v>105.95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>359</v>
       </c>
       <c r="B29" s="3">
-        <v>45869.836226851847</v>
+        <v>45916.713553240741</v>
       </c>
       <c r="C29" s="4">
-        <v>5.99</v>
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="B30" s="3">
-        <v>45869.835682870369</v>
+        <v>45916.712754629632</v>
       </c>
       <c r="C30" s="4">
-        <v>10.98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>361</v>
       </c>
       <c r="B31" s="3">
-        <v>45869.828877314823</v>
+        <v>45915.785127314812</v>
       </c>
       <c r="C31" s="4">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>362</v>
       </c>
       <c r="B32" s="3">
-        <v>45869.803310185183</v>
+        <v>45915.740451388891</v>
       </c>
       <c r="C32" s="4">
-        <v>44.95</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="B33" s="3">
-        <v>45869.529502314806</v>
+        <v>45915.476319444453</v>
       </c>
       <c r="C33" s="4">
-        <v>65.92</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="B34" s="3">
-        <v>45869.485219907408</v>
+        <v>45915.433055555557</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>121.94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="B35" s="3">
-        <v>45869.4844212963</v>
+        <v>45913.558541666673</v>
       </c>
       <c r="C35" s="4">
-        <v>5</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="B36" s="3">
-        <v>45869.483761574083</v>
+        <v>45912.789490740739</v>
       </c>
       <c r="C36" s="4">
-        <v>5</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="B37" s="3">
-        <v>45868.849097222221</v>
+        <v>45912.775972222233</v>
       </c>
       <c r="C37" s="4">
-        <v>12.99</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>368</v>
       </c>
       <c r="B38" s="3">
-        <v>45868.763692129629</v>
+        <v>45912.750671296293</v>
       </c>
       <c r="C38" s="4">
-        <v>9</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="B39" s="3">
-        <v>45868.534583333327</v>
+        <v>45912.565428240741</v>
       </c>
       <c r="C39" s="4">
-        <v>80.969999999999985</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="B40" s="3">
-        <v>45868.48265046296</v>
+        <v>45912.563391203701</v>
       </c>
       <c r="C40" s="4">
-        <v>5</v>
+        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="B41" s="3">
-        <v>45868.471712962957</v>
+        <v>45911.86577546296</v>
       </c>
       <c r="C41" s="4">
-        <v>9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B42" s="3">
-        <v>45867.879131944443</v>
+        <v>45911.862627314818</v>
       </c>
       <c r="C42" s="4">
-        <v>17.989999999999998</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="B43" s="3">
-        <v>45867.85974537037</v>
+        <v>45911.861527777779</v>
       </c>
       <c r="C43" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="B44" s="3">
-        <v>45867.852002314823</v>
+        <v>45911.852303240739</v>
       </c>
       <c r="C44" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="B45" s="3">
-        <v>45867.542974537027</v>
+        <v>45911.801840277767</v>
       </c>
       <c r="C45" s="4">
-        <v>16.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>376</v>
       </c>
       <c r="B46" s="3">
-        <v>45867.537824074083</v>
+        <v>45911.776250000003</v>
       </c>
       <c r="C46" s="4">
-        <v>9</v>
+        <v>62.97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="B47" s="3">
-        <v>45866.864710648151</v>
+        <v>45910.840243055558</v>
       </c>
       <c r="C47" s="4">
-        <v>-9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>378</v>
       </c>
       <c r="B48" s="3">
-        <v>45866.863634259258</v>
+        <v>45910.562106481477</v>
       </c>
       <c r="C48" s="4">
-        <v>24</v>
+        <v>69.97</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="B49" s="3">
-        <v>45866.860729166663</v>
+        <v>45909.793067129627</v>
       </c>
       <c r="C49" s="4">
-        <v>60.94</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>380</v>
       </c>
       <c r="B50" s="3">
-        <v>45866.854120370372</v>
+        <v>45908.832800925928</v>
       </c>
       <c r="C50" s="4">
-        <v>17.989999999999998</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
       <c r="B51" s="3">
-        <v>45866.790972222218</v>
+        <v>45908.82849537037</v>
       </c>
       <c r="C51" s="4">
-        <v>30.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>382</v>
       </c>
       <c r="B52" s="3">
-        <v>45866.527499999997</v>
+        <v>45908.827673611107</v>
       </c>
       <c r="C52" s="4">
-        <v>6.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>383</v>
       </c>
       <c r="B53" s="3">
-        <v>45866.51390046296</v>
+        <v>45908.748530092591</v>
       </c>
       <c r="C53" s="4">
-        <v>-9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>384</v>
       </c>
       <c r="B54" s="3">
-        <v>45866.512037037042</v>
+        <v>45906.487905092603</v>
       </c>
       <c r="C54" s="4">
-        <v>17.989999999999998</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>385</v>
       </c>
       <c r="B55" s="3">
-        <v>45864.596689814818</v>
+        <v>45905.424756944441</v>
       </c>
       <c r="C55" s="4">
-        <v>110.74</v>
+        <v>27.98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>386</v>
       </c>
       <c r="B56" s="3">
-        <v>45864.583067129628</v>
+        <v>45904.806967592587</v>
       </c>
       <c r="C56" s="4">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="B57" s="3">
-        <v>45864.568182870367</v>
+        <v>45904.80609953704</v>
       </c>
       <c r="C57" s="4">
-        <v>-9</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="B58" s="3">
-        <v>45864.566759259258</v>
+        <v>45904.792870370373</v>
       </c>
       <c r="C58" s="4">
-        <v>25.99</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="B59" s="3">
-        <v>45864.55940972222</v>
+        <v>45904.788113425922</v>
       </c>
       <c r="C59" s="4">
-        <v>42.989999999999988</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>390</v>
       </c>
       <c r="B60" s="3">
-        <v>45864.536851851852</v>
+        <v>45904.496481481481</v>
       </c>
       <c r="C60" s="4">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="B61" s="3">
-        <v>45864.53565972222</v>
+        <v>45904.49591435185</v>
       </c>
       <c r="C61" s="4">
-        <v>14.98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>392</v>
       </c>
       <c r="B62" s="3">
-        <v>45864.530497685177</v>
+        <v>45902.821689814817</v>
       </c>
       <c r="C62" s="4">
-        <v>18.98</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>393</v>
       </c>
       <c r="B63" s="3">
-        <v>45864.497986111113</v>
+        <v>45902.744525462957</v>
       </c>
       <c r="C63" s="4">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>394</v>
       </c>
       <c r="B64" s="3">
-        <v>45864.480451388888</v>
+        <v>45902.515185185177</v>
       </c>
       <c r="C64" s="4">
-        <v>15.99</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="B65" s="3">
-        <v>45862.529849537037</v>
+        <v>45901.879675925928</v>
       </c>
       <c r="C65" s="4">
-        <v>27</v>
+        <v>33.979999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="B66" s="3">
-        <v>45862.529097222221</v>
+        <v>45901.874282407407</v>
       </c>
       <c r="C66" s="4">
-        <v>8.99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>397</v>
       </c>
       <c r="B67" s="3">
-        <v>45861.892013888893</v>
+        <v>45901.800046296303</v>
       </c>
       <c r="C67" s="4">
-        <v>5</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>398</v>
       </c>
       <c r="B68" s="3">
-        <v>45861.88994212963</v>
+        <v>45901.547719907408</v>
       </c>
       <c r="C68" s="4">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="B69" s="3">
-        <v>45861.825185185182</v>
+        <v>45901.537986111107</v>
       </c>
       <c r="C69" s="4">
-        <v>27.19</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>400</v>
       </c>
       <c r="B70" s="3">
-        <v>45861.523113425923</v>
+        <v>45901.51866898148</v>
       </c>
       <c r="C70" s="4">
-        <v>3.99</v>
+        <v>34.380000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="B71" s="3">
-        <v>45860.581122685187</v>
+        <v>45901.484548611108</v>
       </c>
       <c r="C71" s="4">
-        <v>9</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="B72" s="3">
-        <v>45859.825960648152</v>
+        <v>45899.571689814817</v>
       </c>
       <c r="C72" s="4">
-        <v>9</v>
+        <v>60.96</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="B73" s="3">
-        <v>45859.818287037036</v>
+        <v>45899.559189814812</v>
       </c>
       <c r="C73" s="4">
-        <v>9.99</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="B74" s="3">
-        <v>45859.80841435185</v>
+        <v>45898.537743055553</v>
       </c>
       <c r="C74" s="4">
-        <v>8.99</v>
+        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="B75" s="3">
-        <v>45859.761469907397</v>
+        <v>45897.582627314812</v>
       </c>
       <c r="C75" s="4">
-        <v>30.15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="B76" s="3">
-        <v>45859.507175925923</v>
+        <v>45897.562858796293</v>
       </c>
       <c r="C76" s="4">
-        <v>40.97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="B77" s="3">
-        <v>45857.499525462961</v>
+        <v>45897.538599537038</v>
       </c>
       <c r="C77" s="4">
-        <v>4.99</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="B78" s="3">
-        <v>45857.498935185176</v>
+        <v>45897.489733796298</v>
       </c>
       <c r="C78" s="4">
-        <v>26.99</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="B79" s="3">
-        <v>45857.492997685193</v>
+        <v>45897.48741898148</v>
       </c>
       <c r="C79" s="4">
-        <v>8.99</v>
+        <v>37.97</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="B80" s="3">
-        <v>45856.889421296299</v>
+        <v>45896.569687499999</v>
       </c>
       <c r="C80" s="4">
-        <v>18.489999999999998</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="B81" s="3">
-        <v>45856.839641203696</v>
+        <v>45896.558796296304</v>
       </c>
       <c r="C81" s="4">
-        <v>23.19</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="B82" s="3">
-        <v>45856.831157407411</v>
+        <v>45896.548171296286</v>
       </c>
       <c r="C82" s="4">
-        <v>22.98</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>413</v>
       </c>
       <c r="B83" s="3">
-        <v>45856.786099537043</v>
+        <v>45895.559062499997</v>
       </c>
       <c r="C83" s="4">
-        <v>22.38</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>414</v>
       </c>
       <c r="B84" s="3">
-        <v>45856.582280092603</v>
+        <v>45895.543599537043</v>
       </c>
       <c r="C84" s="4">
-        <v>10</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>415</v>
       </c>
       <c r="B85" s="3">
-        <v>45856.549201388887</v>
+        <v>45894.524953703702</v>
       </c>
       <c r="C85" s="4">
-        <v>10</v>
+        <v>90.95</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>416</v>
       </c>
       <c r="B86" s="3">
-        <v>45856.513171296298</v>
+        <v>45894.486550925933</v>
       </c>
       <c r="C86" s="4">
-        <v>4</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
       <c r="B87" s="3">
-        <v>45856.462569444448</v>
+        <v>45894.48364583333</v>
       </c>
       <c r="C87" s="4">
-        <v>0</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>418</v>
       </c>
       <c r="B88" s="3">
-        <v>45855.484814814823</v>
+        <v>45892.58388888889</v>
       </c>
       <c r="C88" s="4">
-        <v>19.989999999999998</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>419</v>
       </c>
       <c r="B89" s="3">
-        <v>45854.774201388893</v>
+        <v>45892.553263888891</v>
       </c>
       <c r="C89" s="4">
-        <v>18.89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>420</v>
       </c>
       <c r="B90" s="3">
-        <v>45854.584907407407</v>
+        <v>45892.526388888888</v>
       </c>
       <c r="C90" s="4">
-        <v>33.989999999999988</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="B91" s="3">
-        <v>45853.842268518521</v>
+        <v>45891.533877314818</v>
       </c>
       <c r="C91" s="4">
-        <v>65.100000000000009</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
       <c r="B92" s="3">
-        <v>45852.813923611109</v>
+        <v>45891.48605324074</v>
       </c>
       <c r="C92" s="4">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>423</v>
       </c>
       <c r="B93" s="3">
-        <v>45852.788773148153</v>
+        <v>45890.513726851852</v>
       </c>
       <c r="C93" s="4">
-        <v>13.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="B94" s="3">
-        <v>45850.547627314823</v>
+        <v>45889.470937500002</v>
       </c>
       <c r="C94" s="4">
-        <v>5.99</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>425</v>
       </c>
       <c r="B95" s="3">
-        <v>45850.532696759263</v>
+        <v>45888.587407407409</v>
       </c>
       <c r="C95" s="4">
-        <v>14.44</v>
+        <v>34.979999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B96" s="3">
-        <v>45850.473449074067</v>
+        <v>45888.501180555562</v>
       </c>
       <c r="C96" s="4">
-        <v>15.29</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="B97" s="3">
-        <v>45849.872395833343</v>
+        <v>45888.499131944453</v>
       </c>
       <c r="C97" s="4">
-        <v>43.38</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="B98" s="3">
-        <v>45849.843159722222</v>
+        <v>45887.529398148137</v>
       </c>
       <c r="C98" s="4">
-        <v>17.989999999999998</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B99" s="3">
-        <v>45849.811030092591</v>
+        <v>45887.506655092591</v>
       </c>
       <c r="C99" s="4">
-        <v>8.99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B100" s="3">
-        <v>45849.581180555557</v>
+        <v>45882.607245370367</v>
       </c>
       <c r="C100" s="4">
-        <v>22.97</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B101" s="3">
-        <v>45849.561296296299</v>
+        <v>45882.605520833327</v>
       </c>
       <c r="C101" s="4">
-        <v>8.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B102" s="3">
-        <v>45849.538136574083</v>
+        <v>45882.604756944442</v>
       </c>
       <c r="C102" s="4">
-        <v>7.1999999999999993</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B103" s="3">
-        <v>45849.480011574073</v>
+        <v>45882.594965277778</v>
       </c>
       <c r="C103" s="4">
-        <v>41.460000000000008</v>
+        <v>53.95</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B104" s="3">
-        <v>45848.886145833327</v>
+        <v>45881.577048611107</v>
       </c>
       <c r="C104" s="4">
-        <v>41.900000000000013</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B105" s="3">
-        <v>45848.870115740741</v>
+        <v>45880.570254629631</v>
       </c>
       <c r="C105" s="4">
-        <v>20.28</v>
+        <v>47.98</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B106" s="3">
-        <v>45848.80877314815</v>
+        <v>45880.490787037037</v>
       </c>
       <c r="C106" s="4">
-        <v>25.18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B107" s="3">
-        <v>45848.790995370371</v>
+        <v>45878.529027777768</v>
       </c>
       <c r="C107" s="4">
-        <v>54.77</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B108" s="3">
-        <v>45848.56391203704</v>
+        <v>45878.50209490741</v>
       </c>
       <c r="C108" s="4">
-        <v>40.98</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B109" s="3">
-        <v>45848.55872685185</v>
+        <v>45878.496851851851</v>
       </c>
       <c r="C109" s="4">
-        <v>22.49</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B110" s="3">
-        <v>45848.553715277783</v>
+        <v>45878.488321759258</v>
       </c>
       <c r="C110" s="4">
-        <v>28.69</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B111" s="3">
-        <v>45848.53052083333</v>
+        <v>45877.511319444442</v>
       </c>
       <c r="C111" s="4">
-        <v>18.989999999999998</v>
+        <v>34.979999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="B112" s="3">
-        <v>45848.47965277778</v>
+        <v>45877.504837962973</v>
       </c>
       <c r="C112" s="4">
-        <v>13.98</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B113" s="3">
-        <v>45847.860358796293</v>
+        <v>45877.474259259259</v>
       </c>
       <c r="C113" s="4">
-        <v>8.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="B114" s="3">
-        <v>45847.787719907406</v>
+        <v>45876.513483796298</v>
       </c>
       <c r="C114" s="4">
-        <v>22</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="B115" s="3">
-        <v>45847.783888888887</v>
+        <v>45875.496365740742</v>
       </c>
       <c r="C115" s="4">
-        <v>33.58</v>
+        <v>87.960000000000008</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B116" s="3">
-        <v>45847.772245370368</v>
+        <v>45874.550902777781</v>
       </c>
       <c r="C116" s="4">
-        <v>5.3900000000000006</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="B117" s="3">
-        <v>45847.526921296303</v>
+        <v>45873.592673611107</v>
       </c>
       <c r="C117" s="4">
-        <v>14.39</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="B118" s="3">
-        <v>45847.511377314811</v>
+        <v>45873.589479166672</v>
       </c>
       <c r="C118" s="4">
-        <v>8.99</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="B119" s="3">
-        <v>45847.48033564815</v>
+        <v>45873.51357638889</v>
       </c>
       <c r="C119" s="4">
-        <v>6.99</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="B120" s="3">
-        <v>45846.901307870372</v>
+        <v>45873.479710648149</v>
       </c>
       <c r="C120" s="4">
-        <v>5</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B121" s="3">
-        <v>45846.850810185177</v>
+        <v>45871.578101851846</v>
       </c>
       <c r="C121" s="4">
-        <v>0</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="B122" s="3">
-        <v>45846.842152777783</v>
+        <v>45871.541724537034</v>
       </c>
       <c r="C122" s="4">
-        <v>17.98</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="B123" s="3">
-        <v>45846.832002314812</v>
+        <v>45869.836226851847</v>
       </c>
       <c r="C123" s="4">
-        <v>58.949999999999989</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B124" s="3">
-        <v>45846.822569444441</v>
+        <v>45869.835682870369</v>
       </c>
       <c r="C124" s="4">
-        <v>17.989999999999998</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="B125" s="3">
-        <v>45846.800555555557</v>
+        <v>45869.828877314823</v>
       </c>
       <c r="C125" s="4">
-        <v>65.459999999999994</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="B126" s="3">
-        <v>45846.591226851851</v>
+        <v>45869.803310185183</v>
       </c>
       <c r="C126" s="4">
-        <v>27.98</v>
+        <v>44.95</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B127" s="3">
-        <v>45846.548020833332</v>
+        <v>45869.529502314806</v>
       </c>
       <c r="C127" s="4">
-        <v>28.79</v>
+        <v>65.92</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="B128" s="3">
-        <v>45846.511608796303</v>
+        <v>45869.485219907408</v>
       </c>
       <c r="C128" s="4">
-        <v>9.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="B129" s="3">
-        <v>45846.510324074072</v>
+        <v>45869.4844212963</v>
       </c>
       <c r="C129" s="4">
-        <v>49.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="B130" s="3">
-        <v>45846.49931712963</v>
+        <v>45869.483761574083</v>
       </c>
       <c r="C130" s="4">
-        <v>7.19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="B131" s="3">
-        <v>45845.831053240741</v>
+        <v>45868.849097222221</v>
       </c>
       <c r="C131" s="4">
-        <v>67.55</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B132" s="3">
-        <v>45844.586157407408</v>
+        <v>45868.763692129629</v>
       </c>
       <c r="C132" s="4">
-        <v>-8.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B133" s="3">
-        <v>45843.562152777777</v>
+        <v>45868.534583333327</v>
       </c>
       <c r="C133" s="4">
-        <v>56.86</v>
+        <v>80.969999999999985</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="B134" s="3">
-        <v>45843.507384259261</v>
+        <v>45868.48265046296</v>
       </c>
       <c r="C134" s="4">
-        <v>8.99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="B135" s="3">
-        <v>45843.507048611107</v>
+        <v>45868.471712962957</v>
       </c>
       <c r="C135" s="4">
-        <v>8.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="B136" s="3">
-        <v>45842.839849537027</v>
+        <v>45867.879131944443</v>
       </c>
       <c r="C136" s="4">
-        <v>38.68</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B137" s="3">
-        <v>45842.813414351847</v>
+        <v>45867.85974537037</v>
       </c>
       <c r="C137" s="4">
-        <v>13.98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="B138" s="3">
-        <v>45842.809918981482</v>
+        <v>45867.852002314823</v>
       </c>
       <c r="C138" s="4">
-        <v>118.03</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B139" s="3">
-        <v>45842.791712962957</v>
+        <v>45867.542974537027</v>
       </c>
       <c r="C139" s="4">
-        <v>8.09</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="B140" s="3">
-        <v>45842.770254629628</v>
+        <v>45867.537824074083</v>
       </c>
       <c r="C140" s="4">
-        <v>27.48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="B141" s="3">
-        <v>45842.59337962963</v>
+        <v>45866.864710648151</v>
       </c>
       <c r="C141" s="4">
-        <v>51.06</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="B142" s="3">
-        <v>45842.520277777781</v>
+        <v>45866.863634259258</v>
       </c>
       <c r="C142" s="4">
-        <v>24.97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="B143" s="3">
-        <v>45841.773865740739</v>
+        <v>45866.860729166663</v>
       </c>
       <c r="C143" s="4">
-        <v>16.79</v>
+        <v>60.94</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="B144" s="3">
-        <v>45841.482974537037</v>
+        <v>45866.854120370372</v>
       </c>
       <c r="C144" s="4">
-        <v>16.989999999999998</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="B145" s="3">
-        <v>45841.468414351853</v>
+        <v>45866.790972222218</v>
       </c>
       <c r="C145" s="4">
-        <v>10.79</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="B146" s="3">
-        <v>45841.466840277782</v>
+        <v>45866.527499999997</v>
       </c>
       <c r="C146" s="4">
-        <v>11.69</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="B147" s="3">
-        <v>45840.884328703702</v>
+        <v>45866.51390046296</v>
       </c>
       <c r="C147" s="4">
-        <v>25.98</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="B148" s="3">
-        <v>45840.854756944442</v>
+        <v>45866.512037037042</v>
       </c>
       <c r="C148" s="4">
-        <v>8.99</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="B149" s="3">
-        <v>45840.852986111109</v>
+        <v>45864.596689814818</v>
       </c>
       <c r="C149" s="4">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="B150" s="3">
-        <v>45840.852395833332</v>
+        <v>45864.583067129628</v>
       </c>
       <c r="C150" s="4">
-        <v>44.47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="B151" s="3">
-        <v>45840.803935185177</v>
+        <v>45864.568182870367</v>
       </c>
       <c r="C151" s="4">
-        <v>20.69</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="B152" s="3">
-        <v>45840.777754629627</v>
+        <v>45864.566759259258</v>
       </c>
       <c r="C152" s="4">
-        <v>5</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B153" s="3">
-        <v>45840.775891203702</v>
+        <v>45864.55940972222</v>
       </c>
       <c r="C153" s="4">
-        <v>11.98</v>
+        <v>42.989999999999988</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B154" s="3">
-        <v>45840.76121527778</v>
+        <v>45864.536851851852</v>
       </c>
       <c r="C154" s="4">
-        <v>6.99</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="B155" s="3">
-        <v>45840.578414351847</v>
+        <v>45864.53565972222</v>
       </c>
       <c r="C155" s="4">
-        <v>7.99</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="B156" s="3">
-        <v>45840.538321759261</v>
+        <v>45864.530497685177</v>
       </c>
       <c r="C156" s="4">
-        <v>18.899999999999999</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="B157" s="3">
-        <v>45840.487430555557</v>
+        <v>45864.497986111113</v>
       </c>
       <c r="C157" s="4">
         <v>8.99</v>
@@ -3118,1904 +3413,2938 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="B158" s="3">
-        <v>45840.474479166667</v>
+        <v>45864.480451388888</v>
       </c>
       <c r="C158" s="4">
-        <v>26.89</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="B159" s="3">
-        <v>45839.802106481482</v>
+        <v>45862.529849537037</v>
       </c>
       <c r="C159" s="4">
-        <v>14.39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="B160" s="3">
-        <v>45839.517048611109</v>
+        <v>45862.529097222221</v>
       </c>
       <c r="C160" s="4">
-        <v>11.69</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="B161" s="3">
-        <v>45839.504745370366</v>
+        <v>45861.892013888893</v>
       </c>
       <c r="C161" s="4">
-        <v>32.97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="B162" s="3">
-        <v>45838.837847222218</v>
+        <v>45861.88994212963</v>
       </c>
       <c r="C162" s="4">
-        <v>36.97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="B163" s="3">
-        <v>45838.772615740738</v>
+        <v>45861.825185185182</v>
       </c>
       <c r="C163" s="4">
-        <v>13.49</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="B164" s="3">
-        <v>45838.770277777781</v>
+        <v>45861.523113425923</v>
       </c>
       <c r="C164" s="4">
-        <v>10.79</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="B165" s="3">
-        <v>45838.769652777781</v>
+        <v>45860.581122685187</v>
       </c>
       <c r="C165" s="4">
-        <v>5.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="B166" s="3">
-        <v>45838.76902777778</v>
+        <v>45859.825960648152</v>
       </c>
       <c r="C166" s="4">
-        <v>11.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="B167" s="3">
-        <v>45835.890081018522</v>
+        <v>45859.818287037036</v>
       </c>
       <c r="C167" s="4">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="B168" s="3">
-        <v>45835.889108796298</v>
+        <v>45859.80841435185</v>
       </c>
       <c r="C168" s="4">
-        <v>37.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="B169" s="3">
-        <v>45835.855949074074</v>
+        <v>45859.761469907397</v>
       </c>
       <c r="C169" s="4">
-        <v>42.97</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="B170" s="3">
-        <v>45835.529062499998</v>
+        <v>45859.507175925923</v>
       </c>
       <c r="C170" s="4">
-        <v>19.98</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B171" s="3">
-        <v>45835.522476851853</v>
+        <v>45857.499525462961</v>
       </c>
       <c r="C171" s="4">
-        <v>28.47</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="B172" s="3">
-        <v>45835.464745370373</v>
+        <v>45857.498935185176</v>
       </c>
       <c r="C172" s="4">
-        <v>23.98</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B173" s="3">
-        <v>45834.534814814811</v>
+        <v>45857.492997685193</v>
       </c>
       <c r="C173" s="4">
-        <v>12.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="B174" s="3">
-        <v>45833.848460648151</v>
+        <v>45856.889421296299</v>
       </c>
       <c r="C174" s="4">
-        <v>2.9999999999999991</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="B175" s="3">
-        <v>45833.805648148147</v>
+        <v>45856.839641203696</v>
       </c>
       <c r="C175" s="4">
-        <v>10.99</v>
+        <v>23.19</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="B176" s="3">
-        <v>45833.791458333333</v>
+        <v>45856.831157407411</v>
       </c>
       <c r="C176" s="4">
-        <v>11.99</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="B177" s="3">
-        <v>45833.513287037043</v>
+        <v>45856.786099537043</v>
       </c>
       <c r="C177" s="4">
-        <v>54.469999999999992</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="B178" s="3">
-        <v>45832.880624999998</v>
+        <v>45856.582280092603</v>
       </c>
       <c r="C178" s="4">
-        <v>107.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="B179" s="3">
-        <v>45832.854872685188</v>
+        <v>45856.549201388887</v>
       </c>
       <c r="C179" s="4">
-        <v>66.929999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="B180" s="3">
-        <v>45832.84238425926</v>
+        <v>45856.513171296298</v>
       </c>
       <c r="C180" s="4">
-        <v>52.95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="B181" s="3">
-        <v>45832.72552083333</v>
+        <v>45856.462569444448</v>
       </c>
       <c r="C181" s="4">
-        <v>68.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="B182" s="3">
-        <v>45832.561168981483</v>
+        <v>45855.484814814823</v>
       </c>
       <c r="C182" s="4">
-        <v>22.99</v>
+        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="B183" s="3">
-        <v>45832.536562499998</v>
+        <v>45854.774201388893</v>
       </c>
       <c r="C183" s="4">
-        <v>62.95</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="B184" s="3">
-        <v>45832.531226851846</v>
+        <v>45854.584907407407</v>
       </c>
       <c r="C184" s="4">
-        <v>8.99</v>
+        <v>33.989999999999988</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="B185" s="3">
-        <v>45829.563472222217</v>
+        <v>45853.842268518521</v>
       </c>
       <c r="C185" s="4">
-        <v>5</v>
+        <v>65.100000000000009</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="B186" s="3">
-        <v>45829.55945601852</v>
+        <v>45852.813923611109</v>
       </c>
       <c r="C186" s="4">
-        <v>114.94</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="B187" s="3">
-        <v>45829.549085648148</v>
+        <v>45852.788773148153</v>
       </c>
       <c r="C187" s="4">
-        <v>7.9899999999999993</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B188" s="3">
-        <v>45828.831701388888</v>
+        <v>45850.547627314823</v>
       </c>
       <c r="C188" s="4">
-        <v>84.99</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="B189" s="3">
-        <v>45828.567789351851</v>
+        <v>45850.532696759263</v>
       </c>
       <c r="C189" s="4">
-        <v>3.15</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="B190" s="3">
-        <v>45828.542071759257</v>
+        <v>45850.473449074067</v>
       </c>
       <c r="C190" s="4">
-        <v>4.5</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="B191" s="3">
-        <v>45828.539780092593</v>
+        <v>45849.872395833343</v>
       </c>
       <c r="C191" s="4">
-        <v>5</v>
+        <v>43.38</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="B192" s="3">
-        <v>45828.499803240738</v>
+        <v>45849.843159722222</v>
       </c>
       <c r="C192" s="4">
-        <v>2.9</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B193" s="3">
-        <v>45828.477523148147</v>
+        <v>45849.811030092591</v>
       </c>
       <c r="C193" s="4">
-        <v>24.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="B194" s="3">
-        <v>45828.47</v>
+        <v>45849.581180555557</v>
       </c>
       <c r="C194" s="4">
-        <v>4.99</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="B195" s="3">
-        <v>45828.468298611107</v>
+        <v>45849.561296296299</v>
       </c>
       <c r="C195" s="4">
-        <v>24.49</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="B196" s="3">
-        <v>45827.872141203698</v>
+        <v>45849.538136574083</v>
       </c>
       <c r="C196" s="4">
-        <v>31.97</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="B197" s="3">
-        <v>45827.783668981479</v>
+        <v>45849.480011574073</v>
       </c>
       <c r="C197" s="4">
-        <v>16.989999999999998</v>
+        <v>41.460000000000008</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="B198" s="3">
-        <v>45827.781574074077</v>
+        <v>45848.886145833327</v>
       </c>
       <c r="C198" s="4">
-        <v>4</v>
+        <v>41.900000000000013</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="B199" s="3">
-        <v>45827.780300925922</v>
+        <v>45848.870115740741</v>
       </c>
       <c r="C199" s="4">
-        <v>22.99</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B200" s="3">
-        <v>45827.608819444453</v>
+        <v>45848.80877314815</v>
       </c>
       <c r="C200" s="4">
-        <v>0</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B201" s="3">
-        <v>45827.587152777778</v>
+        <v>45848.790995370371</v>
       </c>
       <c r="C201" s="4">
-        <v>0</v>
+        <v>54.77</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="B202" s="3">
-        <v>45827.47378472222</v>
+        <v>45848.56391203704</v>
       </c>
       <c r="C202" s="4">
-        <v>0</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B203" s="3">
-        <v>45826.767129629632</v>
+        <v>45848.55872685185</v>
       </c>
       <c r="C203" s="4">
-        <v>31.99</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="B204" s="3">
-        <v>45826.766736111109</v>
+        <v>45848.553715277783</v>
       </c>
       <c r="C204" s="4">
-        <v>52.98</v>
+        <v>28.69</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="B205" s="3">
-        <v>45826.766134259262</v>
+        <v>45848.53052083333</v>
       </c>
       <c r="C205" s="4">
-        <v>13.99</v>
+        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="B206" s="3">
-        <v>45826.765879629631</v>
+        <v>45848.47965277778</v>
       </c>
       <c r="C206" s="4">
-        <v>28.98</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="B207" s="3">
-        <v>45825.85974537037</v>
+        <v>45847.860358796293</v>
       </c>
       <c r="C207" s="4">
-        <v>48.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B208" s="3">
-        <v>45825.856064814812</v>
+        <v>45847.787719907406</v>
       </c>
       <c r="C208" s="4">
-        <v>11.99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="B209" s="3">
-        <v>45824.896782407413</v>
+        <v>45847.783888888887</v>
       </c>
       <c r="C209" s="4">
-        <v>146.82</v>
+        <v>33.58</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="B210" s="3">
-        <v>45824.888136574067</v>
+        <v>45847.772245370368</v>
       </c>
       <c r="C210" s="4">
-        <v>9.98</v>
+        <v>5.3900000000000006</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="B211" s="3">
-        <v>45824.860567129632</v>
+        <v>45847.526921296303</v>
       </c>
       <c r="C211" s="4">
-        <v>15.99</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="B212" s="3">
-        <v>45824.856608796297</v>
+        <v>45847.511377314811</v>
       </c>
       <c r="C212" s="4">
-        <v>20.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="B213" s="3">
-        <v>45824.853587962964</v>
+        <v>45847.48033564815</v>
       </c>
       <c r="C213" s="4">
-        <v>2</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="B214" s="3">
-        <v>45824.851770833331</v>
+        <v>45846.901307870372</v>
       </c>
       <c r="C214" s="4">
-        <v>34.979999999999997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="B215" s="3">
-        <v>45824.53193287037</v>
+        <v>45846.850810185177</v>
       </c>
       <c r="C215" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="B216" s="3">
-        <v>45824.51390046296</v>
+        <v>45846.842152777783</v>
       </c>
       <c r="C216" s="4">
-        <v>52.98</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="B217" s="3">
-        <v>45822.554606481477</v>
+        <v>45846.832002314812</v>
       </c>
       <c r="C217" s="4">
-        <v>0</v>
+        <v>58.949999999999989</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="B218" s="3">
-        <v>45822.554201388892</v>
+        <v>45846.822569444441</v>
       </c>
       <c r="C218" s="4">
-        <v>0</v>
+        <v>17.989999999999998</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="B219" s="3">
-        <v>45821.840775462973</v>
+        <v>45846.800555555557</v>
       </c>
       <c r="C219" s="4">
-        <v>4.99</v>
+        <v>65.459999999999994</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="B220" s="3">
-        <v>45821.816284722219</v>
+        <v>45846.591226851851</v>
       </c>
       <c r="C220" s="4">
-        <v>9.5</v>
+        <v>27.98</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="B221" s="3">
-        <v>45821.813750000001</v>
+        <v>45846.548020833332</v>
       </c>
       <c r="C221" s="4">
-        <v>69.97</v>
+        <v>28.79</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="B222" s="3">
-        <v>45821.564155092587</v>
+        <v>45846.511608796303</v>
       </c>
       <c r="C222" s="4">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="B223" s="3">
-        <v>45821.551435185182</v>
+        <v>45846.510324074072</v>
       </c>
       <c r="C223" s="4">
-        <v>22.99</v>
+        <v>49.47</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="B224" s="3">
-        <v>45821.476377314822</v>
+        <v>45846.49931712963</v>
       </c>
       <c r="C224" s="4">
-        <v>1</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="B225" s="3">
-        <v>45821.475254629629</v>
+        <v>45845.831053240741</v>
       </c>
       <c r="C225" s="4">
-        <v>1</v>
+        <v>67.55</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="B226" s="3">
-        <v>45820.841412037043</v>
+        <v>45844.586157407408</v>
       </c>
       <c r="C226" s="4">
-        <v>13.99</v>
+        <v>-8.99</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="B227" s="3">
-        <v>45820.571261574078</v>
+        <v>45843.562152777777</v>
       </c>
       <c r="C227" s="4">
-        <v>4.99</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="B228" s="3">
-        <v>45820.533090277779</v>
+        <v>45843.507384259261</v>
       </c>
       <c r="C228" s="4">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="B229" s="3">
-        <v>45820.532430555562</v>
+        <v>45843.507048611107</v>
       </c>
       <c r="C229" s="4">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="B230" s="3">
-        <v>45820.517048611109</v>
+        <v>45842.839849537027</v>
       </c>
       <c r="C230" s="4">
-        <v>18.989999999999998</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="B231" s="3">
-        <v>45819.849293981482</v>
+        <v>45842.813414351847</v>
       </c>
       <c r="C231" s="4">
-        <v>22.99</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="B232" s="3">
-        <v>45819.84883101852</v>
+        <v>45842.809918981482</v>
       </c>
       <c r="C232" s="4">
-        <v>13.99</v>
+        <v>118.03</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="B233" s="3">
-        <v>45819.773726851847</v>
+        <v>45842.791712962957</v>
       </c>
       <c r="C233" s="4">
-        <v>5.99</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="B234" s="3">
-        <v>45819.759583333333</v>
+        <v>45842.770254629628</v>
       </c>
       <c r="C234" s="4">
-        <v>32.979999999999997</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="B235" s="3">
-        <v>45819.472951388889</v>
+        <v>45842.59337962963</v>
       </c>
       <c r="C235" s="4">
-        <v>10.99</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="B236" s="3">
-        <v>45819.467847222222</v>
+        <v>45842.520277777781</v>
       </c>
       <c r="C236" s="4">
-        <v>12.99</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="B237" s="3">
-        <v>45819.447465277779</v>
+        <v>45841.773865740739</v>
       </c>
       <c r="C237" s="4">
-        <v>-3.5527136788005009E-15</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="B238" s="3">
-        <v>45818.819027777783</v>
+        <v>45841.482974537037</v>
       </c>
       <c r="C238" s="4">
-        <v>30.98</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="B239" s="3">
-        <v>45818.800416666672</v>
+        <v>45841.468414351853</v>
       </c>
       <c r="C239" s="4">
-        <v>5.99</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="B240" s="3">
-        <v>45818.797395833331</v>
+        <v>45841.466840277782</v>
       </c>
       <c r="C240" s="4">
-        <v>8</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="B241" s="3">
-        <v>45818.791273148148</v>
+        <v>45840.884328703702</v>
       </c>
       <c r="C241" s="4">
-        <v>11.99</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="B242" s="3">
-        <v>45818.786006944443</v>
+        <v>45840.854756944442</v>
       </c>
       <c r="C242" s="4">
-        <v>10.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="B243" s="3">
-        <v>45818.775081018517</v>
+        <v>45840.852986111109</v>
       </c>
       <c r="C243" s="4">
-        <v>12.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="B244" s="3">
-        <v>45818.759710648148</v>
+        <v>45840.852395833332</v>
       </c>
       <c r="C244" s="4">
-        <v>15.99</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="B245" s="3">
-        <v>45818.737280092602</v>
+        <v>45840.803935185177</v>
       </c>
       <c r="C245" s="4">
-        <v>15.99</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="B246" s="3">
-        <v>45818.560636574082</v>
+        <v>45840.777754629627</v>
       </c>
       <c r="C246" s="4">
-        <v>13.99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="B247" s="3">
-        <v>45818.524004629631</v>
+        <v>45840.775891203702</v>
       </c>
       <c r="C247" s="4">
-        <v>20.99</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B248" s="3">
-        <v>45818.487962962958</v>
+        <v>45840.76121527778</v>
       </c>
       <c r="C248" s="4">
-        <v>27.98</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="B249" s="3">
-        <v>45818.48400462963</v>
+        <v>45840.578414351847</v>
       </c>
       <c r="C249" s="4">
-        <v>39.979999999999997</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="B250" s="3">
-        <v>45818.463831018518</v>
+        <v>45840.538321759261</v>
       </c>
       <c r="C250" s="4">
-        <v>14.99</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="B251" s="3">
-        <v>45818.460902777777</v>
+        <v>45840.487430555557</v>
       </c>
       <c r="C251" s="4">
-        <v>3</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="B252" s="3">
-        <v>45817.87228009259</v>
+        <v>45840.474479166667</v>
       </c>
       <c r="C252" s="4">
-        <v>38.979999999999997</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="B253" s="3">
-        <v>45817.790752314817</v>
+        <v>45839.802106481482</v>
       </c>
       <c r="C253" s="4">
-        <v>8.7899999999999991</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="B254" s="3">
-        <v>45817.789050925923</v>
+        <v>45839.517048611109</v>
       </c>
       <c r="C254" s="4">
-        <v>1</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="B255" s="3">
-        <v>45817.787997685176</v>
+        <v>45839.504745370366</v>
       </c>
       <c r="C255" s="4">
-        <v>76.949999999999989</v>
+        <v>32.97</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="B256" s="3">
-        <v>45817.707974537043</v>
+        <v>45838.837847222218</v>
       </c>
       <c r="C256" s="4">
-        <v>15.99</v>
+        <v>36.97</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B257" s="3">
-        <v>45817.476898148147</v>
+        <v>45838.772615740738</v>
       </c>
       <c r="C257" s="4">
-        <v>5.99</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="B258" s="3">
-        <v>45815.564398148148</v>
+        <v>45838.770277777781</v>
       </c>
       <c r="C258" s="4">
-        <v>12.99</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="B259" s="3">
-        <v>45815.562916666669</v>
+        <v>45838.769652777781</v>
       </c>
       <c r="C259" s="4">
-        <v>8.99</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="B260" s="3">
-        <v>45815.542685185188</v>
+        <v>45838.76902777778</v>
       </c>
       <c r="C260" s="4">
-        <v>20.98</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="B261" s="3">
-        <v>45815.505543981482</v>
+        <v>45835.890081018522</v>
       </c>
       <c r="C261" s="4">
-        <v>10.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="B262" s="3">
-        <v>45814.77270833333</v>
+        <v>45835.889108796298</v>
       </c>
       <c r="C262" s="4">
-        <v>24.98</v>
+        <v>37.97</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="B263" s="3">
-        <v>45814.750891203701</v>
+        <v>45835.855949074074</v>
       </c>
       <c r="C263" s="4">
-        <v>51.97</v>
+        <v>42.97</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B264" s="3">
-        <v>45814.740173611113</v>
+        <v>45835.529062499998</v>
       </c>
       <c r="C264" s="4">
-        <v>4.99</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="B265" s="3">
-        <v>45814.544004629628</v>
+        <v>45835.522476851853</v>
       </c>
       <c r="C265" s="4">
-        <v>5.99</v>
+        <v>28.47</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B266" s="3">
-        <v>45814.54184027778</v>
+        <v>45835.464745370373</v>
       </c>
       <c r="C266" s="4">
-        <v>31.97</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="B267" s="3">
-        <v>45814.527569444443</v>
+        <v>45834.534814814811</v>
       </c>
       <c r="C267" s="4">
-        <v>5.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="B268" s="3">
-        <v>45814.526550925933</v>
+        <v>45833.848460648151</v>
       </c>
       <c r="C268" s="4">
-        <v>5.99</v>
+        <v>2.9999999999999991</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="B269" s="3">
-        <v>45814.517592592587</v>
+        <v>45833.805648148147</v>
       </c>
       <c r="C269" s="4">
-        <v>37.78</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="B270" s="3">
-        <v>45814.503136574072</v>
+        <v>45833.791458333333</v>
       </c>
       <c r="C270" s="4">
-        <v>7.99</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="B271" s="3">
-        <v>45814.499907407408</v>
+        <v>45833.513287037043</v>
       </c>
       <c r="C271" s="4">
-        <v>30.97</v>
+        <v>54.469999999999992</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B272" s="3">
-        <v>45814.493101851847</v>
+        <v>45832.880624999998</v>
       </c>
       <c r="C272" s="4">
-        <v>27.98</v>
+        <v>107.92</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="B273" s="3">
-        <v>45814.484282407408</v>
+        <v>45832.854872685188</v>
       </c>
       <c r="C273" s="4">
-        <v>8.99</v>
+        <v>66.929999999999993</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="B274" s="3">
-        <v>45814.476342592592</v>
+        <v>45832.84238425926</v>
       </c>
       <c r="C274" s="4">
-        <v>35.97</v>
+        <v>52.95</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B275" s="3">
-        <v>45813.99622685185</v>
+        <v>45832.72552083333</v>
       </c>
       <c r="C275" s="4">
-        <v>-3.45</v>
+        <v>68.97</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="B276" s="3">
-        <v>45813.815300925933</v>
+        <v>45832.561168981483</v>
       </c>
       <c r="C276" s="4">
-        <v>-1.000000000000034E-2</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="B277" s="3">
-        <v>45813.788715277777</v>
+        <v>45832.536562499998</v>
       </c>
       <c r="C277" s="4">
-        <v>24.29</v>
+        <v>62.95</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B278" s="3">
-        <v>45813.740324074082</v>
+        <v>45832.531226851846</v>
       </c>
       <c r="C278" s="4">
-        <v>22.48</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="B279" s="3">
-        <v>45813.720370370371</v>
+        <v>45829.563472222217</v>
       </c>
       <c r="C279" s="4">
-        <v>20.99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="B280" s="3">
-        <v>45813.508043981477</v>
+        <v>45829.55945601852</v>
       </c>
       <c r="C280" s="4">
-        <v>11.5</v>
+        <v>114.94</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B281" s="3">
-        <v>45813.475312499999</v>
+        <v>45829.549085648148</v>
       </c>
       <c r="C281" s="4">
-        <v>41.98</v>
+        <v>7.9899999999999993</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="B282" s="3">
-        <v>45812.871342592603</v>
+        <v>45828.831701388888</v>
       </c>
       <c r="C282" s="4">
-        <v>15.98</v>
+        <v>84.99</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B283" s="3">
-        <v>45812.84815972222</v>
+        <v>45828.567789351851</v>
       </c>
       <c r="C283" s="4">
-        <v>58.77</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B284" s="3">
-        <v>45812.738310185188</v>
+        <v>45828.542071759257</v>
       </c>
       <c r="C284" s="4">
-        <v>55.98</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="B285" s="3">
-        <v>45812.501215277778</v>
+        <v>45828.539780092593</v>
       </c>
       <c r="C285" s="4">
-        <v>23.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="B286" s="3">
-        <v>45812.447916666657</v>
+        <v>45828.499803240738</v>
       </c>
       <c r="C286" s="4">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B287" s="3">
-        <v>45811.875543981478</v>
+        <v>45828.477523148147</v>
       </c>
       <c r="C287" s="4">
-        <v>50.96</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="B288" s="3">
-        <v>45811.868136574078</v>
+        <v>45828.47</v>
       </c>
       <c r="C288" s="4">
-        <v>62.97</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="B289" s="3">
-        <v>45811.855162037027</v>
+        <v>45828.468298611107</v>
       </c>
       <c r="C289" s="4">
-        <v>51.960000000000008</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B290" s="3">
-        <v>45811.841770833344</v>
+        <v>45827.872141203698</v>
       </c>
       <c r="C290" s="4">
-        <v>18.98</v>
+        <v>31.97</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="B291" s="3">
-        <v>45811.839722222219</v>
+        <v>45827.783668981479</v>
       </c>
       <c r="C291" s="4">
-        <v>22.99</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="B292" s="3">
-        <v>45811.826724537037</v>
+        <v>45827.781574074077</v>
       </c>
       <c r="C292" s="4">
-        <v>5.99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="B293" s="3">
-        <v>45811.825289351851</v>
+        <v>45827.780300925922</v>
       </c>
       <c r="C293" s="4">
-        <v>113.93</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="B294" s="3">
-        <v>45811.818530092591</v>
+        <v>45827.608819444453</v>
       </c>
       <c r="C294" s="4">
-        <v>62.960000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="B295" s="3">
-        <v>45811.783090277779</v>
+        <v>45827.587152777778</v>
       </c>
       <c r="C295" s="4">
-        <v>22.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="B296" s="3">
-        <v>45811.752280092587</v>
+        <v>45827.47378472222</v>
       </c>
       <c r="C296" s="4">
-        <v>5.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="B297" s="3">
-        <v>45811.730590277781</v>
+        <v>45826.767129629632</v>
       </c>
       <c r="C297" s="4">
-        <v>5</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="B298" s="3">
-        <v>45811.72619212963</v>
+        <v>45826.766736111109</v>
       </c>
       <c r="C298" s="4">
-        <v>59.860000000000007</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="B299" s="3">
-        <v>45811.570543981477</v>
+        <v>45826.766134259262</v>
       </c>
       <c r="C299" s="4">
-        <v>29.98</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="B300" s="3">
-        <v>45811.541678240741</v>
+        <v>45826.765879629631</v>
       </c>
       <c r="C300" s="4">
-        <v>2</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="B301" s="3">
-        <v>45811.531990740739</v>
+        <v>45825.85974537037</v>
       </c>
       <c r="C301" s="4">
-        <v>31.97</v>
+        <v>48.97</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="B302" s="3">
-        <v>45811.51635416667</v>
+        <v>45825.856064814812</v>
       </c>
       <c r="C302" s="4">
-        <v>13.99</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="B303" s="3">
-        <v>45811.506712962961</v>
+        <v>45824.896782407413</v>
       </c>
       <c r="C303" s="4">
-        <v>16.98</v>
+        <v>146.82</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="B304" s="3">
-        <v>45811.505196759259</v>
+        <v>45824.888136574067</v>
       </c>
       <c r="C304" s="4">
-        <v>6.99</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B305" s="3">
-        <v>45810.861921296288</v>
+        <v>45824.860567129632</v>
       </c>
       <c r="C305" s="4">
-        <v>11.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="B306" s="3">
-        <v>45810.852083333331</v>
+        <v>45824.856608796297</v>
       </c>
       <c r="C306" s="4">
-        <v>23.98</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="B307" s="3">
-        <v>45810.842199074083</v>
+        <v>45824.853587962964</v>
       </c>
       <c r="C307" s="4">
-        <v>25.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="B308" s="3">
-        <v>45810.836493055547</v>
+        <v>45824.851770833331</v>
       </c>
       <c r="C308" s="4">
-        <v>43.98</v>
+        <v>34.979999999999997</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="B309" s="3">
-        <v>45810.814872685187</v>
+        <v>45824.53193287037</v>
       </c>
       <c r="C309" s="4">
-        <v>24.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="B310" s="3">
-        <v>45810.792800925927</v>
+        <v>45824.51390046296</v>
       </c>
       <c r="C310" s="4">
-        <v>0</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="B311" s="3">
-        <v>45810.787129629629</v>
+        <v>45822.554606481477</v>
       </c>
       <c r="C311" s="4">
-        <v>26.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="B312" s="3">
-        <v>45810.706793981481</v>
+        <v>45822.554201388892</v>
       </c>
       <c r="C312" s="4">
-        <v>11.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="B313" s="3">
-        <v>45810.562905092593</v>
+        <v>45821.840775462973</v>
       </c>
       <c r="C313" s="4">
-        <v>24.49</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B314" s="3">
-        <v>45810.543055555558</v>
+        <v>45821.816284722219</v>
       </c>
       <c r="C314" s="4">
-        <v>32.97</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B315" s="3">
-        <v>45810.535185185188</v>
+        <v>45821.813750000001</v>
       </c>
       <c r="C315" s="4">
-        <v>13.99</v>
+        <v>69.97</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="B316" s="3">
-        <v>45810.478935185187</v>
+        <v>45821.564155092587</v>
       </c>
       <c r="C316" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B317" s="3">
-        <v>45810.473425925928</v>
+        <v>45821.551435185182</v>
       </c>
       <c r="C317" s="4">
-        <v>102.94</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="B318" s="3">
-        <v>45810.46565972222</v>
+        <v>45821.476377314822</v>
       </c>
       <c r="C318" s="4">
-        <v>66.930000000000007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="B319" s="3">
-        <v>45810.441134259258</v>
+        <v>45821.475254629629</v>
       </c>
       <c r="C319" s="4">
-        <v>8.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="B320" s="3">
-        <v>45808.047546296293</v>
+        <v>45820.841412037043</v>
       </c>
       <c r="C320" s="4">
-        <v>0</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="B321" s="3">
-        <v>45808.036909722221</v>
+        <v>45820.571261574078</v>
       </c>
       <c r="C321" s="4">
-        <v>0</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="B322" s="3">
-        <v>45808.030405092592</v>
+        <v>45820.533090277779</v>
       </c>
       <c r="C322" s="4">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="B323" s="3">
-        <v>45807.926608796297</v>
+        <v>45820.532430555562</v>
       </c>
       <c r="C323" s="4">
-        <v>0.01</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="B324" s="3">
-        <v>45807.923171296286</v>
+        <v>45820.517048611109</v>
       </c>
       <c r="C324" s="4">
-        <v>0</v>
+        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="B325" s="3">
-        <v>45807.916203703702</v>
+        <v>45819.849293981482</v>
       </c>
       <c r="C325" s="4">
-        <v>0.01</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="B326" s="3">
-        <v>45807.910300925927</v>
+        <v>45819.84883101852</v>
       </c>
       <c r="C326" s="4">
-        <v>0.01</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="B327" s="3">
-        <v>45807.908136574071</v>
+        <v>45819.773726851847</v>
       </c>
       <c r="C327" s="4">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="B328" s="3">
-        <v>45807.888796296298</v>
+        <v>45819.759583333333</v>
       </c>
       <c r="C328" s="4">
-        <v>0</v>
+        <v>32.979999999999997</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="B329" s="3">
-        <v>45807.881018518521</v>
+        <v>45819.472951388889</v>
       </c>
       <c r="C329" s="4">
-        <v>13.99</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B330" s="3">
+        <v>45819.467847222222</v>
+      </c>
+      <c r="C330" s="4">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B331" s="3">
+        <v>45819.447465277779</v>
+      </c>
+      <c r="C331" s="4">
+        <v>-3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B332" s="3">
+        <v>45818.819027777783</v>
+      </c>
+      <c r="C332" s="4">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B333" s="3">
+        <v>45818.800416666672</v>
+      </c>
+      <c r="C333" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B334" s="3">
+        <v>45818.797395833331</v>
+      </c>
+      <c r="C334" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B335" s="3">
+        <v>45818.791273148148</v>
+      </c>
+      <c r="C335" s="4">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B336" s="3">
+        <v>45818.786006944443</v>
+      </c>
+      <c r="C336" s="4">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B337" s="3">
+        <v>45818.775081018517</v>
+      </c>
+      <c r="C337" s="4">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B338" s="3">
+        <v>45818.759710648148</v>
+      </c>
+      <c r="C338" s="4">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B339" s="3">
+        <v>45818.737280092602</v>
+      </c>
+      <c r="C339" s="4">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B340" s="3">
+        <v>45818.560636574082</v>
+      </c>
+      <c r="C340" s="4">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B341" s="3">
+        <v>45818.524004629631</v>
+      </c>
+      <c r="C341" s="4">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B342" s="3">
+        <v>45818.487962962958</v>
+      </c>
+      <c r="C342" s="4">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B343" s="3">
+        <v>45818.48400462963</v>
+      </c>
+      <c r="C343" s="4">
+        <v>39.979999999999997</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B344" s="3">
+        <v>45818.463831018518</v>
+      </c>
+      <c r="C344" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B345" s="3">
+        <v>45818.460902777777</v>
+      </c>
+      <c r="C345" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B346" s="3">
+        <v>45817.87228009259</v>
+      </c>
+      <c r="C346" s="4">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B347" s="3">
+        <v>45817.790752314817</v>
+      </c>
+      <c r="C347" s="4">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B348" s="3">
+        <v>45817.789050925923</v>
+      </c>
+      <c r="C348" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B349" s="3">
+        <v>45817.787997685176</v>
+      </c>
+      <c r="C349" s="4">
+        <v>76.949999999999989</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B350" s="3">
+        <v>45817.707974537043</v>
+      </c>
+      <c r="C350" s="4">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B351" s="3">
+        <v>45817.476898148147</v>
+      </c>
+      <c r="C351" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B352" s="3">
+        <v>45815.564398148148</v>
+      </c>
+      <c r="C352" s="4">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B353" s="3">
+        <v>45815.562916666669</v>
+      </c>
+      <c r="C353" s="4">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B354" s="3">
+        <v>45815.542685185188</v>
+      </c>
+      <c r="C354" s="4">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B355" s="3">
+        <v>45815.505543981482</v>
+      </c>
+      <c r="C355" s="4">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B356" s="3">
+        <v>45814.77270833333</v>
+      </c>
+      <c r="C356" s="4">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B357" s="3">
+        <v>45814.750891203701</v>
+      </c>
+      <c r="C357" s="4">
+        <v>51.97</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B358" s="3">
+        <v>45814.740173611113</v>
+      </c>
+      <c r="C358" s="4">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B359" s="3">
+        <v>45814.544004629628</v>
+      </c>
+      <c r="C359" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B360" s="3">
+        <v>45814.54184027778</v>
+      </c>
+      <c r="C360" s="4">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B361" s="3">
+        <v>45814.527569444443</v>
+      </c>
+      <c r="C361" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B362" s="3">
+        <v>45814.526550925933</v>
+      </c>
+      <c r="C362" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B363" s="3">
+        <v>45814.517592592587</v>
+      </c>
+      <c r="C363" s="4">
+        <v>37.78</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B364" s="3">
+        <v>45814.503136574072</v>
+      </c>
+      <c r="C364" s="4">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B365" s="3">
+        <v>45814.499907407408</v>
+      </c>
+      <c r="C365" s="4">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B366" s="3">
+        <v>45814.493101851847</v>
+      </c>
+      <c r="C366" s="4">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B367" s="3">
+        <v>45814.484282407408</v>
+      </c>
+      <c r="C367" s="4">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B368" s="3">
+        <v>45814.476342592592</v>
+      </c>
+      <c r="C368" s="4">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B369" s="3">
+        <v>45813.99622685185</v>
+      </c>
+      <c r="C369" s="4">
+        <v>-3.45</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B370" s="3">
+        <v>45813.815300925933</v>
+      </c>
+      <c r="C370" s="4">
+        <v>-1.000000000000034E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B371" s="3">
+        <v>45813.788715277777</v>
+      </c>
+      <c r="C371" s="4">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B372" s="3">
+        <v>45813.740324074082</v>
+      </c>
+      <c r="C372" s="4">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B373" s="3">
+        <v>45813.720370370371</v>
+      </c>
+      <c r="C373" s="4">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B374" s="3">
+        <v>45813.508043981477</v>
+      </c>
+      <c r="C374" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B375" s="3">
+        <v>45813.475312499999</v>
+      </c>
+      <c r="C375" s="4">
+        <v>41.98</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B376" s="3">
+        <v>45812.871342592603</v>
+      </c>
+      <c r="C376" s="4">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B377" s="3">
+        <v>45812.84815972222</v>
+      </c>
+      <c r="C377" s="4">
+        <v>58.77</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B378" s="3">
+        <v>45812.738310185188</v>
+      </c>
+      <c r="C378" s="4">
+        <v>55.98</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B379" s="3">
+        <v>45812.501215277778</v>
+      </c>
+      <c r="C379" s="4">
+        <v>23.98</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B380" s="3">
+        <v>45812.447916666657</v>
+      </c>
+      <c r="C380" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B381" s="3">
+        <v>45811.875543981478</v>
+      </c>
+      <c r="C381" s="4">
+        <v>50.96</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B382" s="3">
+        <v>45811.868136574078</v>
+      </c>
+      <c r="C382" s="4">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B383" s="3">
+        <v>45811.855162037027</v>
+      </c>
+      <c r="C383" s="4">
+        <v>51.960000000000008</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B384" s="3">
+        <v>45811.841770833344</v>
+      </c>
+      <c r="C384" s="4">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B385" s="3">
+        <v>45811.839722222219</v>
+      </c>
+      <c r="C385" s="4">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B386" s="3">
+        <v>45811.826724537037</v>
+      </c>
+      <c r="C386" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B387" s="3">
+        <v>45811.825289351851</v>
+      </c>
+      <c r="C387" s="4">
+        <v>113.93</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B388" s="3">
+        <v>45811.818530092591</v>
+      </c>
+      <c r="C388" s="4">
+        <v>62.960000000000008</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B389" s="3">
+        <v>45811.783090277779</v>
+      </c>
+      <c r="C389" s="4">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B390" s="3">
+        <v>45811.752280092587</v>
+      </c>
+      <c r="C390" s="4">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B391" s="3">
+        <v>45811.730590277781</v>
+      </c>
+      <c r="C391" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B392" s="3">
+        <v>45811.72619212963</v>
+      </c>
+      <c r="C392" s="4">
+        <v>59.860000000000007</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B393" s="3">
+        <v>45811.570543981477</v>
+      </c>
+      <c r="C393" s="4">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B394" s="3">
+        <v>45811.541678240741</v>
+      </c>
+      <c r="C394" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B395" s="3">
+        <v>45811.531990740739</v>
+      </c>
+      <c r="C395" s="4">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B396" s="3">
+        <v>45811.51635416667</v>
+      </c>
+      <c r="C396" s="4">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B397" s="3">
+        <v>45811.506712962961</v>
+      </c>
+      <c r="C397" s="4">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B398" s="3">
+        <v>45811.505196759259</v>
+      </c>
+      <c r="C398" s="4">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B399" s="3">
+        <v>45810.861921296288</v>
+      </c>
+      <c r="C399" s="4">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B400" s="3">
+        <v>45810.852083333331</v>
+      </c>
+      <c r="C400" s="4">
+        <v>23.98</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B401" s="3">
+        <v>45810.842199074083</v>
+      </c>
+      <c r="C401" s="4">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B402" s="3">
+        <v>45810.836493055547</v>
+      </c>
+      <c r="C402" s="4">
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B403" s="3">
+        <v>45810.814872685187</v>
+      </c>
+      <c r="C403" s="4">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B404" s="3">
+        <v>45810.792800925927</v>
+      </c>
+      <c r="C404" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B405" s="3">
+        <v>45810.787129629629</v>
+      </c>
+      <c r="C405" s="4">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B406" s="3">
+        <v>45810.706793981481</v>
+      </c>
+      <c r="C406" s="4">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B407" s="3">
+        <v>45810.562905092593</v>
+      </c>
+      <c r="C407" s="4">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B408" s="3">
+        <v>45810.543055555558</v>
+      </c>
+      <c r="C408" s="4">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B409" s="3">
+        <v>45810.535185185188</v>
+      </c>
+      <c r="C409" s="4">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B410" s="3">
+        <v>45810.478935185187</v>
+      </c>
+      <c r="C410" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B411" s="3">
+        <v>45810.473425925928</v>
+      </c>
+      <c r="C411" s="4">
+        <v>102.94</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B412" s="3">
+        <v>45810.46565972222</v>
+      </c>
+      <c r="C412" s="4">
+        <v>66.930000000000007</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B413" s="3">
+        <v>45810.441134259258</v>
+      </c>
+      <c r="C413" s="4">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B414" s="3">
+        <v>45808.047546296293</v>
+      </c>
+      <c r="C414" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B415" s="3">
+        <v>45808.036909722221</v>
+      </c>
+      <c r="C415" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B416" s="3">
+        <v>45808.030405092592</v>
+      </c>
+      <c r="C416" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B417" s="3">
+        <v>45807.926608796297</v>
+      </c>
+      <c r="C417" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B418" s="3">
+        <v>45807.923171296286</v>
+      </c>
+      <c r="C418" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B419" s="3">
+        <v>45807.916203703702</v>
+      </c>
+      <c r="C419" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B420" s="3">
+        <v>45807.910300925927</v>
+      </c>
+      <c r="C420" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B421" s="3">
+        <v>45807.908136574071</v>
+      </c>
+      <c r="C421" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B422" s="3">
+        <v>45807.888796296298</v>
+      </c>
+      <c r="C422" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B423" s="3">
+        <v>45807.881018518521</v>
+      </c>
+      <c r="C423" s="4">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B424" s="3">
         <v>45798.499548611107</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C424" s="4">
         <v>3.45</v>
       </c>
     </row>
